--- a/data/trans_camb/P11_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P11_R2-Provincia-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>10.84181371954438</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.3698069298488448</v>
+        <v>0.3698069298488461</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>6.30536843211576</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.240394960347886</v>
+        <v>-2.464841812778892</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.580803976686444</v>
+        <v>-2.779557978811284</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.306212018831296</v>
+        <v>-6.395177155856019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.83802642529571</v>
+        <v>6.066590752608817</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.618872278340209</v>
+        <v>6.167739179636663</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.123397080879037</v>
+        <v>-3.183101487184332</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.156560887727437</v>
+        <v>3.118373660568615</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.001515207482643</v>
+        <v>2.869982155392068</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.044982666284983</v>
+        <v>-3.785334711592477</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.687594186280989</v>
+        <v>5.340835436498262</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.95835295903299</v>
+        <v>5.104712726921741</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.3617258386362362</v>
+        <v>-0.2053801820829529</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.50242954867256</v>
+        <v>16.4211998025675</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.13235328266287</v>
+        <v>16.27892869731895</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.632610078122746</v>
+        <v>3.544769246920364</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.784399054757884</v>
+        <v>9.857780158254833</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.375779026103396</v>
+        <v>9.322949727039326</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8049640760296359</v>
+        <v>0.7722558109368812</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>2.396616741655022</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08174697538457902</v>
+        <v>0.08174697538457933</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1.302308635410991</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3161490480644328</v>
+        <v>-0.3955831256177216</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3803454124737985</v>
+        <v>-0.4101281581132253</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8396020450470869</v>
+        <v>-0.8573356791244371</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.8077697492486956</v>
+        <v>0.8135634534638774</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.790691590651793</v>
+        <v>0.7955939916755452</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4644312528502055</v>
+        <v>-0.4919338083762864</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4947815717645574</v>
+        <v>0.4805617210505467</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4348718298262578</v>
+        <v>0.412610084860882</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6065914096591225</v>
+        <v>-0.6008376380636313</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.718745240578271</v>
+        <v>1.604758226667132</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.610954294103774</v>
+        <v>1.496438597581159</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.01607227841840631</v>
+        <v>-0.02432412487119564</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>6.071141778583382</v>
+        <v>6.059362018504097</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.840070606918246</v>
+        <v>5.392838034016992</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.454538788592533</v>
+        <v>1.351986641685768</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.575541197751918</v>
+        <v>2.805559685158777</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.508127073935591</v>
+        <v>2.656921626884336</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2724777249383677</v>
+        <v>0.231576537446906</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.09774049387348688</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.3368786880967173</v>
+        <v>0.3368786880967201</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.720862107114941</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4104673910491156</v>
+        <v>-0.325430903629743</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.469652846838317</v>
+        <v>-2.461098483664421</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.496856627055759</v>
+        <v>-1.352533769237392</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8299580403024014</v>
+        <v>0.9151085294375015</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.24952177514484</v>
+        <v>-3.387539959904574</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.838750843885552</v>
+        <v>-2.686040504722144</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.248360688892869</v>
+        <v>1.221330277526448</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.069192981383454</v>
+        <v>-1.926217513158312</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.425135333813944</v>
+        <v>-1.209326553321462</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.120250890841699</v>
+        <v>6.318293393086387</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.847252781160047</v>
+        <v>2.632593765666554</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.340422157520914</v>
+        <v>4.432532906695344</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.214645677623869</v>
+        <v>8.476815574464414</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.789661994719509</v>
+        <v>3.48875732262692</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.272585781116662</v>
+        <v>3.190039731195994</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.303360544327926</v>
+        <v>6.167760748978955</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.433032936837978</v>
+        <v>2.3311444316143</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.855658801527676</v>
+        <v>3.012373840995408</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.01223420221277523</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04216719015850664</v>
+        <v>0.04216719015850699</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.6206993306710652</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.08083540446819416</v>
+        <v>-0.1020554054790414</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4414260744824566</v>
+        <v>-0.4635364264279391</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2978185191732262</v>
+        <v>-0.2733007100586758</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.07813155153547609</v>
+        <v>0.07879117640257008</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3333867748283745</v>
+        <v>-0.3616053726976825</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2939704202690249</v>
+        <v>-0.2742548200705504</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1778436925588547</v>
+        <v>0.1757713862580934</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2900634421213952</v>
+        <v>-0.2882000205742832</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1980467383734394</v>
+        <v>-0.1728308324327064</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.426551933156015</v>
+        <v>2.241085206820465</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.133072109223292</v>
+        <v>1.042698385517866</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.829395553328831</v>
+        <v>1.691134891121056</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.293478201927487</v>
+        <v>1.30387196671012</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6138196599144111</v>
+        <v>0.52263916012286</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5136178264218795</v>
+        <v>0.5152131016244986</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.269520679430954</v>
+        <v>1.249662349847638</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5057922677833211</v>
+        <v>0.4609099839447635</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5879350684920047</v>
+        <v>0.6090998517272618</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.482881352080766</v>
+        <v>2.55152136334832</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.037160354195563</v>
+        <v>-0.9324728685195751</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.86329982672244</v>
+        <v>10.78718433116671</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.442760562587131</v>
+        <v>2.518053274485899</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.3925305991050639</v>
+        <v>-0.4322435501202394</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>14.0472742169448</v>
+        <v>14.15717967799778</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.250975946825334</v>
+        <v>3.198805793282076</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.09974649619395376</v>
+        <v>-0.1319404963470454</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>13.60588136094202</v>
+        <v>13.50560047915425</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.557585537127267</v>
+        <v>8.701834833468277</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.487844118468467</v>
+        <v>2.851036407447096</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.57327135695353</v>
+        <v>18.50849693176826</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.883494702251154</v>
+        <v>8.981583355466469</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.146014899815426</v>
+        <v>5.534866691277282</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>20.97906323901766</v>
+        <v>21.38095320071226</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.603523701644132</v>
+        <v>7.585124800904104</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.152141958022511</v>
+        <v>3.104939312503965</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>19.09190551092958</v>
+        <v>18.66466614526725</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>1.084030784091597</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8.284253403265415</v>
+        <v>8.284253403265419</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>3.495191824170278</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.7233347375973646</v>
+        <v>0.7925154157453379</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8069428163340616</v>
+        <v>-0.812597701762087</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>4.089696201965611</v>
+        <v>4.590569340122036</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.5899582753846455</v>
+        <v>0.554128098597803</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2532670851748192</v>
+        <v>-0.2588054316118377</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>3.332916699136033</v>
+        <v>3.805826001059022</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.349700421131542</v>
+        <v>1.31573749520979</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.08575824273120258</v>
+        <v>-0.09044008729522152</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>5.392380331467056</v>
+        <v>5.247159419789199</v>
       </c>
     </row>
     <row r="21">
@@ -1243,29 +1243,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>23.22486739944389</v>
+        <v>28.16175179998164</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>53.43153171908787</v>
+        <v>62.10749740486846</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>7.925746354502652</v>
+        <v>8.670782484894128</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.525995295532561</v>
+        <v>5.582264319672855</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>18.96492411698306</v>
+        <v>23.43513716605986</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>9.15594660752827</v>
+        <v>8.933377492923647</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.571284023528596</v>
+        <v>3.723697671983925</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>23.18181747178904</v>
+        <v>24.19075883509107</v>
       </c>
     </row>
     <row r="22">
@@ -1315,31 +1315,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.844824553269368</v>
+        <v>2.247645072552852</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.033157699264582</v>
+        <v>3.025182933583805</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.643504157053266</v>
+        <v>4.698361413638905</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.511042372403377</v>
+        <v>7.49539956805295</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>11.80738301331988</v>
+        <v>11.80169793600168</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.29489829463374</v>
+        <v>10.33903666757</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>5.545122417881973</v>
+        <v>5.656960795430082</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>8.307728882338326</v>
+        <v>8.439308215497778</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>8.660501584451623</v>
+        <v>8.713025287319477</v>
       </c>
     </row>
     <row r="24">
@@ -1350,31 +1350,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.302189654174233</v>
+        <v>9.077888550954292</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.927427217184833</v>
+        <v>9.688946779320972</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.20049894461715</v>
+        <v>12.36709777035316</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.22504715647961</v>
+        <v>15.52928338292277</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>20.90682991044411</v>
+        <v>21.36602203676735</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.95703394140502</v>
+        <v>17.83735195039932</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.96745868891537</v>
+        <v>10.67074932445099</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>14.17889588001269</v>
+        <v>14.22258058071167</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>14.39369398343578</v>
+        <v>14.09374833289069</v>
       </c>
     </row>
     <row r="25">
@@ -1420,31 +1420,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3457071103986831</v>
+        <v>0.5435259408900344</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.6561420254549447</v>
+        <v>0.6574814138660355</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.109126051097174</v>
+        <v>1.200849773772089</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1.476072148827759</v>
+        <v>1.385093465439041</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2.247443809816675</v>
+        <v>2.420838476973699</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.911861078605696</v>
+        <v>2.021068889735482</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.442413367289548</v>
+        <v>1.433604490224426</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2.138133098095586</v>
+        <v>2.218655362078656</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2.146764762308605</v>
+        <v>2.085363050513398</v>
       </c>
     </row>
     <row r="27">
@@ -1455,31 +1455,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.37542053925289</v>
+        <v>7.406118879503422</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7.495301958270684</v>
+        <v>7.021580680920526</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8.51520004723897</v>
+        <v>8.622180711209449</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7.24117866634966</v>
+        <v>7.089344791291692</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>9.880801810270649</v>
+        <v>10.51697660801547</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8.931600060730705</v>
+        <v>8.704799100296109</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>5.4412206495798</v>
+        <v>5.274631913882879</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>7.129378897270864</v>
+        <v>6.937598956966252</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7.531743045333047</v>
+        <v>6.877749043326723</v>
       </c>
     </row>
     <row r="28">
@@ -1509,7 +1509,7 @@
         <v>3.626883929976775</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.916396406887769</v>
+        <v>2.916396406887768</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.15746258063574</v>
@@ -1529,31 +1529,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.622072475442751</v>
+        <v>-3.746306919042909</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.868972870411972</v>
+        <v>-4.716129439508556</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.895426676463791</v>
+        <v>-2.805239194961971</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.40530966796377</v>
+        <v>3.328177911645811</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.7150584789881123</v>
+        <v>-0.7166854102310719</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.5085734155364201</v>
+        <v>-0.9343186651455014</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.931784438953933</v>
+        <v>1.037722148763433</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.538112794929997</v>
+        <v>-1.517091528095326</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.6881558733312141</v>
+        <v>-0.3866276697219829</v>
       </c>
     </row>
     <row r="30">
@@ -1564,31 +1564,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.78800687841393</v>
+        <v>4.5707262308528</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.061140515947157</v>
+        <v>2.9714362034569</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.24888455439181</v>
+        <v>5.111592846055848</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.63071779962672</v>
+        <v>13.14474769791534</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.268605029626762</v>
+        <v>7.842904190930415</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.941635167514918</v>
+        <v>6.026291395150435</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.416384724955524</v>
+        <v>7.59752034553169</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.575681944736652</v>
+        <v>4.635801303973921</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.555837100545338</v>
+        <v>4.514432788870312</v>
       </c>
     </row>
     <row r="31">
@@ -1614,7 +1614,7 @@
         <v>1.007386493149583</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8100447672687245</v>
+        <v>0.8100447672687242</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.9999353037006399</v>
@@ -1634,31 +1634,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5625191318394238</v>
+        <v>-0.6148588042583606</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7083746693120879</v>
+        <v>-0.7138632715103354</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4079333110391399</v>
+        <v>-0.4602410010117646</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4092172458167748</v>
+        <v>0.5058104072001742</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2518534316427478</v>
+        <v>-0.2169436078672762</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1340809136754131</v>
+        <v>-0.1978908221496558</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.151320482501575</v>
+        <v>0.1483195514121943</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3062809669867155</v>
+        <v>-0.2928722915520281</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.133552792412114</v>
+        <v>-0.08298885424439295</v>
       </c>
     </row>
     <row r="33">
@@ -1669,31 +1669,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.654206667200861</v>
+        <v>1.829552228115299</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.191783178347181</v>
+        <v>1.344561112307486</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.152956282425892</v>
+        <v>1.907485045988075</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>7.580981852405369</v>
+        <v>8.090859648642224</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>4.764699478106972</v>
+        <v>3.741492525039359</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.1930164162143</v>
+        <v>3.46628036530804</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>2.56535239887261</v>
+        <v>2.633548882020385</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.548137904195652</v>
+        <v>1.652156226939489</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.556531707794809</v>
+        <v>1.704812022345854</v>
       </c>
     </row>
     <row r="34">
@@ -1743,31 +1743,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.352559936147149</v>
+        <v>2.474693954972516</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.140988057792675</v>
+        <v>1.129354427281624</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>11.64261572582879</v>
+        <v>11.69137456650317</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.04038968381380252</v>
+        <v>0.05224210331444953</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.142499405499628</v>
+        <v>-0.5268796728024977</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>16.45226203927184</v>
+        <v>16.77604683069512</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.125225652301271</v>
+        <v>2.166014480574634</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.180346209625038</v>
+        <v>1.244618369654823</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>15.21424723163727</v>
+        <v>15.2154220279653</v>
       </c>
     </row>
     <row r="36">
@@ -1778,31 +1778,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8.260901600010815</v>
+        <v>8.447303420189115</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.268065374241202</v>
+        <v>6.039976951847913</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>19.3501274618142</v>
+        <v>19.22056434623524</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.166822788228934</v>
+        <v>8.127718585319691</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>8.165639521642062</v>
+        <v>8.271346055140928</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>25.57374275134474</v>
+        <v>25.66412144076952</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.189307599469854</v>
+        <v>7.520555961925711</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>6.245093332848823</v>
+        <v>6.249022025804829</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>21.20123170733758</v>
+        <v>21.3561760657307</v>
       </c>
     </row>
     <row r="37">
@@ -1828,7 +1828,7 @@
         <v>0.8942955191252033</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>4.836792481053231</v>
+        <v>4.836792481053229</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1.787046334445006</v>
@@ -1848,31 +1848,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.6472534710828582</v>
+        <v>0.5350212437426027</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.07204611687216586</v>
+        <v>0.2861237601126542</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>5.51689851541719</v>
+        <v>5.37332945288412</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.01748087004814527</v>
+        <v>-0.046362041600995</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.07136777238999396</v>
+        <v>-0.1628440702152044</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2.400855370587637</v>
+        <v>2.280464314269685</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4538838319907539</v>
+        <v>0.4561195510316164</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.2536030198470067</v>
+        <v>0.2765428412756746</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>3.845451684935947</v>
+        <v>3.714334578276209</v>
       </c>
     </row>
     <row r="39">
@@ -1886,22 +1886,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>3.017795117558059</v>
+        <v>3.279679589770445</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>3.237822573729685</v>
+        <v>2.902522145742251</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>9.853335846815321</v>
+        <v>10.33442296068737</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>4.056080423959656</v>
+        <v>4.313022016318437</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>3.672697149548268</v>
+        <v>3.731190891591232</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>14.79396636777954</v>
+        <v>14.17151195234179</v>
       </c>
     </row>
     <row r="40">
@@ -1922,7 +1922,7 @@
         <v>1.055699670626995</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4.627227727933256</v>
+        <v>4.627227727933258</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>2.85989023721707</v>
@@ -1931,7 +1931,7 @@
         <v>6.458079843511855</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>7.194958209032009</v>
+        <v>7.194958209032006</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.287496847051409</v>
@@ -1940,7 +1940,7 @@
         <v>3.84244839488376</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>5.967553515036101</v>
+        <v>5.967553515036106</v>
       </c>
     </row>
     <row r="41">
@@ -1951,31 +1951,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.190569530432091</v>
+        <v>-2.458808518384562</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.054877323477768</v>
+        <v>-1.085502360014132</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.106765239875023</v>
+        <v>2.174222538425771</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.205696097663986</v>
+        <v>0.3697455746947501</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>3.198507251381475</v>
+        <v>3.452723352337246</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>4.636782752595046</v>
+        <v>4.739152858949184</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.4343692276607016</v>
+        <v>-0.4031908381742368</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.799468641468469</v>
+        <v>1.930306697515856</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>4.316617573832366</v>
+        <v>4.150891774280344</v>
       </c>
     </row>
     <row r="42">
@@ -1986,31 +1986,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.683328857436053</v>
+        <v>1.530455879749833</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.203080941470856</v>
+        <v>3.159521380713042</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7.337752766212543</v>
+        <v>7.207593104029186</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.913491741341788</v>
+        <v>5.62920135453563</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>9.312633528531796</v>
+        <v>9.472754335742085</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>9.54623938874038</v>
+        <v>9.909369351546109</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.879375523577272</v>
+        <v>2.862409634177185</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.523855445847108</v>
+        <v>5.811732707519458</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>7.854227453999424</v>
+        <v>7.764635078865488</v>
       </c>
     </row>
     <row r="43">
@@ -2036,7 +2036,7 @@
         <v>1.350478715838902</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>1.504570732802257</v>
+        <v>1.504570732802256</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.3189923239372531</v>
@@ -2045,7 +2045,7 @@
         <v>0.9520112968820312</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>1.478530816087722</v>
+        <v>1.478530816087723</v>
       </c>
     </row>
     <row r="44">
@@ -2056,31 +2056,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5229278758103648</v>
+        <v>-0.5706698320957967</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2754137652959768</v>
+        <v>-0.2709222735787785</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.4419426690722388</v>
+        <v>0.4893889841570122</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.009108066101730147</v>
+        <v>0.05023530779540784</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.5011553533424741</v>
+        <v>0.5270114536800506</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7085162193946329</v>
+        <v>0.7032398244154086</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.09859313866170771</v>
+        <v>-0.09457990851627585</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.3635121519626509</v>
+        <v>0.3728441839600456</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.8607715035902822</v>
+        <v>0.8050842490983969</v>
       </c>
     </row>
     <row r="45">
@@ -2091,31 +2091,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7808409569428689</v>
+        <v>0.6541529976435794</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.350486432010419</v>
+        <v>1.321907119240825</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.057705266645589</v>
+        <v>3.31805199682174</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.602671989443235</v>
+        <v>1.620823148038981</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.502276269873431</v>
+        <v>2.545895915036017</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.687566328614429</v>
+        <v>2.808277363491585</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.8858189874563858</v>
+        <v>0.8607432770982953</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.668282371091806</v>
+        <v>1.690353437692941</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.439498653348906</v>
+        <v>2.364524553720873</v>
       </c>
     </row>
     <row r="46">
@@ -2136,7 +2136,7 @@
         <v>-2.994716768717069</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.327421011687469</v>
+        <v>0.3274210116874683</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-0.2108409717228504</v>
@@ -2145,7 +2145,7 @@
         <v>-3.091382582611498</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>3.642906990962348</v>
+        <v>3.642906990962351</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.8797854162832013</v>
@@ -2154,7 +2154,7 @@
         <v>-3.040969071949423</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>2.013203260389883</v>
+        <v>2.013203260389885</v>
       </c>
     </row>
     <row r="47">
@@ -2165,31 +2165,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.697972927364991</v>
+        <v>-3.619359205605192</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.825303894241017</v>
+        <v>-4.778096539992758</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.896600164110309</v>
+        <v>-1.739548606969579</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.003439431658027</v>
+        <v>-2.860431903910923</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-5.675156537483815</v>
+        <v>-5.455104406689768</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.9463885829760573</v>
+        <v>0.9251495077839905</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.604464500633865</v>
+        <v>-2.59273638960482</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-4.639014365250675</v>
+        <v>-4.600148240704528</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.2234321020115001</v>
+        <v>0.229725024380582</v>
       </c>
     </row>
     <row r="48">
@@ -2200,31 +2200,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.3677844504968516</v>
+        <v>0.5156739621156421</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.133004585920269</v>
+        <v>-1.126109457508823</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.680333979779598</v>
+        <v>2.574781866845167</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.483076581358435</v>
+        <v>2.173533952485217</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.7343356079960284</v>
+        <v>-0.7614062751054068</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.086097610551224</v>
+        <v>6.142181960123415</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.7851241203397143</v>
+        <v>0.820311081121523</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-1.567091353816846</v>
+        <v>-1.482647107617936</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.573816781104994</v>
+        <v>3.634327587386717</v>
       </c>
     </row>
     <row r="49">
@@ -2241,7 +2241,7 @@
         <v>-0.5895092779100358</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.06445274764836664</v>
+        <v>0.0644527476483665</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.03047396012548898</v>
@@ -2250,7 +2250,7 @@
         <v>-0.446813865376072</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.5265286034129022</v>
+        <v>0.5265286034129025</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.1460642254195046</v>
@@ -2259,7 +2259,7 @@
         <v>-0.5048694645285898</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.3342371553317647</v>
+        <v>0.334237155331765</v>
       </c>
     </row>
     <row r="50">
@@ -2270,31 +2270,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5888248765090799</v>
+        <v>-0.5945487591767699</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.7816921879409513</v>
+        <v>-0.7812784846603675</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.299302063230229</v>
+        <v>-0.2942616624838578</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3550281568807452</v>
+        <v>-0.343217302871401</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.6772743245367254</v>
+        <v>-0.6438240608081458</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.09420355500160658</v>
+        <v>0.1121711629086951</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3809456286943049</v>
+        <v>-0.3679333438865361</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.6779909775609709</v>
+        <v>-0.663329354415476</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.02836155568729585</v>
+        <v>0.0288126942817175</v>
       </c>
     </row>
     <row r="51">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1553509866503137</v>
+        <v>0.1410064547802104</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.2695098655831861</v>
+        <v>-0.272424354639202</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.7307353591237924</v>
+        <v>0.6414736456813255</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.4423653133875191</v>
+        <v>0.3908153741384437</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.1186734335376301</v>
+        <v>-0.1095128057390966</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.102770786651069</v>
+        <v>1.10447195444697</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1524867163817978</v>
+        <v>0.1632180391855363</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.2966500267632967</v>
+        <v>-0.2797928418630451</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.6959245640869486</v>
+        <v>0.7063663255831781</v>
       </c>
     </row>
     <row r="52">
@@ -2359,7 +2359,7 @@
         <v>3.939452361895486</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>7.282668710584458</v>
+        <v>7.282668710584457</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>3.150950152053396</v>
@@ -2368,7 +2368,7 @@
         <v>2.328590202637038</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>5.894475417258369</v>
+        <v>5.894475417258371</v>
       </c>
     </row>
     <row r="53">
@@ -2379,31 +2379,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.4873370100407166</v>
+        <v>0.609284693343078</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.3739661028165633</v>
+        <v>-0.3860309083878609</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>3.34168505971458</v>
+        <v>3.346626153582392</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>3.332340351734993</v>
+        <v>3.392226403558374</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>2.679712409417568</v>
+        <v>2.653186304663572</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>6.020676107675071</v>
+        <v>6.152060237029372</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>2.278890379191618</v>
+        <v>2.279824315280409</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>1.507351927006644</v>
+        <v>1.482289398912835</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>5.079983881362049</v>
+        <v>5.132581275844196</v>
       </c>
     </row>
     <row r="54">
@@ -2414,31 +2414,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.532093149093071</v>
+        <v>2.582825517210199</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.579044025549797</v>
+        <v>1.583009021178663</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>5.518805059021347</v>
+        <v>5.46536947597062</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>5.948314071785512</v>
+        <v>5.821508177619121</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>5.225944211179296</v>
+        <v>5.156450081931649</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>8.369080359218858</v>
+        <v>8.533775052144286</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>3.891207170061992</v>
+        <v>4.016185100939454</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>3.120879326338385</v>
+        <v>3.094759976497515</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>6.660914944497379</v>
+        <v>6.770718946484397</v>
       </c>
     </row>
     <row r="55">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1270280474771649</v>
+        <v>0.1508379334677494</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.09060403324132392</v>
+        <v>-0.1063378398132139</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.8107066686705658</v>
+        <v>0.8362810427688391</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.5867365194609807</v>
+        <v>0.5959212434963155</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.4721204389814894</v>
+        <v>0.4662860950831895</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>1.033435706202774</v>
+        <v>1.045360018440118</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4871245428988275</v>
+        <v>0.4749827642634251</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.3184253878146223</v>
+        <v>0.3162659367485153</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>1.048934451951642</v>
+        <v>1.094779117182615</v>
       </c>
     </row>
     <row r="57">
@@ -2519,31 +2519,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.8553061764054921</v>
+        <v>0.8840133570569624</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.5203355637070265</v>
+        <v>0.5290683271644492</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.774562474188088</v>
+        <v>1.772737184399083</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>1.29208999877757</v>
+        <v>1.235122859263303</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>1.140622201931527</v>
+        <v>1.098063571547517</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.884945088294401</v>
+        <v>1.849039645527455</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.9739264677655255</v>
+        <v>0.990158410648184</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.7843719725865316</v>
+        <v>0.7799652694864068</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>1.674996891936532</v>
+        <v>1.697314047185633</v>
       </c>
     </row>
     <row r="58">
